--- a/ga_setting.xlsx
+++ b/ga_setting.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="component" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Fracture Toughness</t>
     <phoneticPr fontId="1"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>close</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SiO2</t>
   </si>
   <si>
@@ -261,11 +257,6 @@
   </si>
   <si>
     <t>Ag</t>
-  </si>
-  <si>
-    <t>No
-use</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>can
@@ -298,13 +289,30 @@
   </si>
   <si>
     <t>Standard deviation of  INTERGLAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no
+use</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -718,40 +726,74 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>51.6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>83</v>
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>49.3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>10.564</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -760,30 +802,30 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>51.6</v>
+        <v>3.2269999999999999</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2">
-        <v>49.3</v>
+        <v>2.6579999999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>10.564</v>
+        <v>0.80347199999999996</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -792,30 +834,30 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>3.2269999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2">
-        <v>2.6579999999999999</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="J4" s="2">
-        <v>0.80347199999999996</v>
+        <v>0.63380999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -824,33 +866,33 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>0.47</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2">
-        <v>1.1739999999999999</v>
+        <v>0.22625000000000001</v>
       </c>
       <c r="J5" s="2">
-        <v>0.63380999999999998</v>
+        <v>3.073E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -859,57 +901,25 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>0.28000000000000003</v>
+        <v>90</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2">
-        <v>0.22625000000000001</v>
+        <v>90.045299999999997</v>
       </c>
       <c r="J6" s="2">
-        <v>3.073E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>90</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2">
-        <v>90.045299999999997</v>
-      </c>
-      <c r="J7" s="2">
         <v>48.223500000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -918,7 +928,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -932,16 +942,16 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
@@ -950,10 +960,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -961,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -993,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1025,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1057,7 +1067,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -1089,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1121,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -1153,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -1185,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1217,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1249,7 +1259,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1281,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1313,7 +1323,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -1345,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -1377,7 +1387,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1409,7 +1419,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -1441,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -1473,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -1505,7 +1515,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -1537,7 +1547,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1569,7 +1579,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -1601,7 +1611,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -1633,7 +1643,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -1665,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1697,7 +1707,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -1729,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1761,7 +1771,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -1793,7 +1803,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1825,7 +1835,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1857,7 +1867,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1889,7 +1899,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -1921,7 +1931,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -1953,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -1985,7 +1995,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -2017,7 +2027,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -2049,7 +2059,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -2081,7 +2091,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -2113,7 +2123,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -2145,7 +2155,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -2177,7 +2187,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -2209,7 +2219,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -2241,7 +2251,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -2273,7 +2283,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -2305,7 +2315,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -2337,7 +2347,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -2369,7 +2379,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -2401,7 +2411,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -2433,7 +2443,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -2465,7 +2475,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -2497,7 +2507,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -2529,7 +2539,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -2561,7 +2571,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
@@ -2593,7 +2603,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" s="4">
         <v>0</v>
@@ -2625,7 +2635,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
@@ -2657,7 +2667,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -2689,7 +2699,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
@@ -2721,7 +2731,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -2753,7 +2763,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2785,7 +2795,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
@@ -2817,7 +2827,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -2849,7 +2859,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -2881,7 +2891,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -2913,7 +2923,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>

--- a/ga_setting.xlsx
+++ b/ga_setting.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="component" sheetId="2" r:id="rId2"/>
+    <sheet name="setting" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <t>Fracture Toughness</t>
     <phoneticPr fontId="1"/>
@@ -73,10 +74,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>close</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SiO2</t>
   </si>
   <si>
@@ -261,11 +258,6 @@
   </si>
   <si>
     <t>Ag</t>
-  </si>
-  <si>
-    <t>No
-use</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>can
@@ -288,16 +280,144 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Averge of  INTERGLAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Standard deviation of  INTERGLAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no
+use</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number of populations (generations)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probability of mutation
+ of individual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probability of mutation
+ of each gene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number of gene
+ of individual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probability of crossover
+ of individual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num_gene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num_generation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num_population</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cxpb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mutpb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>variable name in program</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setting value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recommend value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.05 - 0.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5 - 0.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.3 - 0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mut_indpb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number of individual
+ in population</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABBE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DENS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRAC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POIS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YOUN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abbreviation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Priority
-(positive value)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Averge of  INTERGLAD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Standard deviation of  INTERGLAD</t>
+(positive value)
+0 to 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probability of crossover
+of each gene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cx_indpb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -321,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,6 +509,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,158 +834,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="29.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="14.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="29.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>51.6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>49.3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10.564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.6579999999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.80347199999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.63380999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>51.6</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2">
-        <v>49.3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10.564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.2269999999999999</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.6579999999999999</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.80347199999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.1739999999999999</v>
-      </c>
       <c r="J5" s="2">
-        <v>0.63380999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>0.22625000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.073E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -862,54 +1046,25 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.22625000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>90</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J6" s="2">
-        <v>3.073E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>90</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2">
         <v>90.045299999999997</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K6" s="2">
         <v>48.223500000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -918,7 +1073,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -932,16 +1087,16 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
@@ -950,10 +1105,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -961,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -993,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1025,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1057,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -1089,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1121,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -1153,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -1185,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1217,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1249,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1281,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1313,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -1345,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -1377,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1409,7 +1564,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -1441,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -1473,7 +1628,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -1505,7 +1660,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -1537,7 +1692,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1569,7 +1724,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -1601,7 +1756,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -1633,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -1665,7 +1820,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1697,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -1729,7 +1884,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1761,7 +1916,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -1793,7 +1948,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1825,7 +1980,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1857,7 +2012,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1889,7 +2044,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -1921,7 +2076,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -1953,7 +2108,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -1985,7 +2140,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -2017,7 +2172,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -2049,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -2081,7 +2236,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -2113,7 +2268,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -2145,7 +2300,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -2177,7 +2332,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -2209,7 +2364,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -2241,7 +2396,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -2273,7 +2428,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -2305,7 +2460,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -2337,7 +2492,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -2369,7 +2524,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -2401,7 +2556,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -2433,7 +2588,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -2465,7 +2620,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -2497,7 +2652,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -2529,7 +2684,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -2561,7 +2716,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
@@ -2593,7 +2748,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" s="4">
         <v>0</v>
@@ -2625,7 +2780,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
@@ -2657,7 +2812,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -2689,7 +2844,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
@@ -2721,7 +2876,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -2753,7 +2908,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2785,7 +2940,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
@@ -2817,7 +2972,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -2849,7 +3004,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -2881,7 +3036,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -2913,7 +3068,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2944,4 +3099,127 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="8" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>500</v>
+      </c>
+      <c r="D3" s="7">
+        <v>100</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="8">
+        <v>500</v>
+      </c>
+      <c r="D4" s="8">
+        <v>100</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ga_setting.xlsx
+++ b/ga_setting.xlsx
@@ -11,7 +11,7 @@
     <sheet name="component" sheetId="2" r:id="rId2"/>
     <sheet name="setting" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>Fracture Toughness</t>
     <phoneticPr fontId="1"/>
@@ -418,6 +418,10 @@
   </si>
   <si>
     <t>cx_indpb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Generative algorithm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -836,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -888,7 +892,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -923,7 +927,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -958,7 +962,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -993,7 +997,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -1028,7 +1032,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -1072,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1113,7 +1117,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1145,7 +1149,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -1177,7 +1181,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -1209,7 +1213,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -1241,7 +1245,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -1273,7 +1277,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -1305,7 +1309,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -1337,7 +1341,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -1369,7 +1373,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -1401,7 +1405,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -1433,7 +1437,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -1465,7 +1469,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -1497,7 +1501,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -1529,7 +1533,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
@@ -1561,7 +1565,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
@@ -1593,7 +1597,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -1625,7 +1629,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -1657,7 +1661,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
@@ -1689,7 +1693,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>31</v>
@@ -1721,7 +1725,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
@@ -1753,7 +1757,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
@@ -1785,7 +1789,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>34</v>
@@ -1817,7 +1821,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>35</v>
@@ -1849,7 +1853,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -1881,7 +1885,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>37</v>
@@ -1913,7 +1917,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>38</v>
@@ -1945,7 +1949,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>39</v>
@@ -1977,7 +1981,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>40</v>
@@ -2009,7 +2013,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>41</v>
@@ -2041,7 +2045,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
@@ -2073,7 +2077,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>43</v>
@@ -2105,7 +2109,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>44</v>
@@ -2137,7 +2141,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>45</v>
@@ -2169,7 +2173,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>46</v>
@@ -2201,7 +2205,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>47</v>
@@ -2233,7 +2237,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>48</v>
@@ -2265,7 +2269,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>49</v>
@@ -2297,7 +2301,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>50</v>
@@ -2329,7 +2333,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>51</v>
@@ -2361,7 +2365,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>52</v>
@@ -2393,7 +2397,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>53</v>
@@ -2425,7 +2429,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>54</v>
@@ -2457,7 +2461,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>55</v>
@@ -2489,7 +2493,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>56</v>
@@ -2521,7 +2525,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>57</v>
@@ -2553,7 +2557,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>58</v>
@@ -2585,7 +2589,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>59</v>
@@ -2617,7 +2621,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>60</v>
@@ -2649,7 +2653,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>61</v>
@@ -2681,7 +2685,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>62</v>
@@ -2713,7 +2717,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>63</v>
@@ -2745,7 +2749,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>64</v>
@@ -2777,7 +2781,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>65</v>
@@ -2809,7 +2813,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>66</v>
@@ -2841,7 +2845,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>67</v>
@@ -2873,7 +2877,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>68</v>
@@ -2905,7 +2909,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -2937,7 +2941,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>70</v>
@@ -2969,7 +2973,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>71</v>
@@ -3001,7 +3005,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>72</v>
@@ -3033,7 +3037,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
@@ -3065,7 +3069,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>74</v>
@@ -3106,7 +3110,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3116,7 +3120,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="B1" s="7" t="s">
         <v>88</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>500</v>
       </c>
       <c r="D3" s="7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>99</v>
@@ -3202,7 +3208,7 @@
         <v>500</v>
       </c>
       <c r="D4" s="8">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8">
         <v>0.7</v>

--- a/ga_setting.xlsx
+++ b/ga_setting.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="5520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="component" sheetId="2" r:id="rId2"/>
     <sheet name="setting" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -617,23 +617,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -669,23 +652,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -841,7 +807,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1076,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1158,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -3109,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3205,7 +3171,7 @@
         <v>1000</v>
       </c>
       <c r="C4" s="8">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D4" s="8">
         <v>15</v>

--- a/ga_setting.xlsx
+++ b/ga_setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="5520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="5520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>Fracture Toughness</t>
     <phoneticPr fontId="1"/>
@@ -421,7 +421,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Generative algorithm</t>
+    <t>grid search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grid_search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>generative algorithm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -498,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,6 +543,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3073,21 +3099,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="30.25" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>88</v>
@@ -3110,8 +3138,14 @@
       <c r="H1" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>95</v>
       </c>
@@ -3136,8 +3170,14 @@
       <c r="H2" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>97</v>
       </c>
@@ -3162,8 +3202,14 @@
       <c r="H3" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>96</v>
       </c>
@@ -3187,6 +3233,12 @@
       </c>
       <c r="H4" s="8">
         <v>0.5</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/ga_setting.xlsx
+++ b/ga_setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="5520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -893,7 +893,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="4">
-        <v>51.6</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
@@ -928,7 +928,7 @@
         <v>104</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>8</v>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1147,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -3101,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3217,10 +3217,10 @@
         <v>1000</v>
       </c>
       <c r="C4" s="8">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D4" s="8">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E4" s="8">
         <v>0.7</v>
@@ -3229,13 +3229,13 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="8">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="8">
         <v>0.5</v>
       </c>
       <c r="I4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>117</v>
